--- a/DOE_model/factorial_params.xlsx
+++ b/DOE_model/factorial_params.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Werkmap\Obsidian\Github\RC-FAB-2D-Heterostructures\DOE_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0BB06E-24BE-484B-A6F2-D79DAAB65F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF413C2-BD9F-428C-8151-35DC40F25EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{B11409B1-1748-4106-B2DF-C971854B53A2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Parameters" sheetId="1" r:id="rId1"/>
+    <sheet name="Runs" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Runs!$A$1:$J$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,10 +42,19 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={89078540-DF50-418F-95F4-9756F20F8609}</author>
     <author>tc={F377E9B2-1295-487D-BB40-05CFC3303C19}</author>
   </authors>
   <commentList>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{F377E9B2-1295-487D-BB40-05CFC3303C19}">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{89078540-DF50-418F-95F4-9756F20F8609}">
+      <text>
+        <t>[Opmerkingenthread]
+U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
+Opmerking:
+    Controlled by the tango desktop</t>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="1" shapeId="0" xr:uid="{F377E9B2-1295-487D-BB40-05CFC3303C19}">
       <text>
         <t xml:space="preserve">[Opmerkingenthread]
 U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
@@ -55,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
   <si>
     <t>part name</t>
   </si>
@@ -117,14 +130,62 @@
     <t>max acc (um/s^2)</t>
   </si>
   <si>
-    <t>TangoDesktop</t>
+    <t>distance (cm)</t>
+  </si>
+  <si>
+    <t>range (cm)</t>
+  </si>
+  <si>
+    <t>Fits</t>
+  </si>
+  <si>
+    <t>t to top speed (s)</t>
+  </si>
+  <si>
+    <t>Vexta C9514-9012K</t>
+  </si>
+  <si>
+    <t>Day 1</t>
+  </si>
+  <si>
+    <t>Day 2</t>
+  </si>
+  <si>
+    <t>Std nr</t>
+  </si>
+  <si>
+    <t>Block nr</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Vi</t>
+  </si>
+  <si>
+    <t>Ai</t>
+  </si>
+  <si>
+    <t>Vj</t>
+  </si>
+  <si>
+    <t>Aj</t>
+  </si>
+  <si>
+    <t>Vl</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Response</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,16 +193,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -149,12 +229,161 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -170,6 +399,115 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>278130</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Tekstvak 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EBC9548-A806-68BB-3D8E-D3E71E271D45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="278130" y="925830"/>
+          <a:ext cx="4842510" cy="3649980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Doel: Bepalen van verboden gebieden wat betreft trillingen in het xy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> vlak van het instrument (karakteriseren van instrument van base stages en rotatie)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>LET OP: dit experiment is niet bedoelt om de resonantie modussen van het instrument te bepalen aangezien dit sterk afhankelijk is van de posities van de servos en dit niet goed in een factorial experiment bepaald kan worden. De methode van quantitatief meten word ook wel static state analysis of PSD analysis genoemt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>Elke meting duur 55 seconde (50 nodig om op top snelheid te komen en 5 sec speling. Voor elke meting word een achtergrond meting gedaan van dezefde tijd, dit is 'nodig' omdat de achtergrond vibratie in het lab over de dag varieerd</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>All parts are tested using velosity control</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -475,6 +813,9 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B7" dT="2022-12-21T14:21:20.98" personId="{50D80062-D623-42FA-B49C-26D000ECE8E6}" id="{89078540-DF50-418F-95F4-9756F20F8609}">
+    <text>Controlled by the tango desktop</text>
+  </threadedComment>
   <threadedComment ref="B8" dT="2022-12-17T15:12:00.02" personId="{50D80062-D623-42FA-B49C-26D000ECE8E6}" id="{F377E9B2-1295-487D-BB40-05CFC3303C19}">
     <text xml:space="preserve">In deg/s ipv um/s
 </text>
@@ -484,225 +825,1528 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89A2BBB-2230-4309-927A-399AC88D1CD3}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="12">
         <v>0.02</v>
       </c>
-      <c r="E2">
+      <c r="D2" s="2">
+        <f>-E2</f>
+        <v>-40</v>
+      </c>
+      <c r="E2" s="2">
         <v>40</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" s="2">
+        <f t="shared" ref="J2:J5" si="0">E2/F2</f>
+        <v>80</v>
+      </c>
+      <c r="K2" s="12">
+        <f>1/2 *F2*J2^2 /10000</f>
+        <v>0.16</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="M2" s="2">
+        <f>IF(K2&gt;L2, 0, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D8" si="1">-E3</f>
+        <v>-40</v>
+      </c>
+      <c r="E3" s="2">
+        <v>40</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="J3" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="K3" s="12">
+        <f t="shared" ref="K3:K8" si="2">1/2 *F3*J3^2 /10000</f>
+        <v>0.16</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M8" si="3">IF(K3&gt;L3, 0, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="12">
         <v>0.02</v>
       </c>
-      <c r="E3">
+      <c r="D4" s="2">
+        <f t="shared" si="1"/>
+        <v>-40</v>
+      </c>
+      <c r="E4" s="2">
         <v>40</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>0.02</v>
-      </c>
-      <c r="E4">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="K4" s="12">
+        <f t="shared" si="2"/>
+        <v>0.16</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="12">
         <v>0.78125</v>
       </c>
-      <c r="E5">
-        <v>400</v>
-      </c>
-      <c r="G5">
-        <v>200</v>
-      </c>
-      <c r="H5">
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>-400</v>
+      </c>
+      <c r="E5" s="2">
+        <v>400</v>
+      </c>
+      <c r="F5" s="12">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2">
+        <v>200</v>
+      </c>
+      <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <f>2.5*10^6 +5.5*10^6</f>
         <v>8000000</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="K5" s="12">
+        <f>1/2 *F5*J5^2 /10000</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>8</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="12">
         <v>0.78125</v>
       </c>
-      <c r="E6">
-        <v>400</v>
-      </c>
-      <c r="G6">
-        <v>200</v>
-      </c>
-      <c r="H6">
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>-400</v>
+      </c>
+      <c r="E6" s="2">
+        <v>400</v>
+      </c>
+      <c r="F6" s="12">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2">
+        <v>200</v>
+      </c>
+      <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <f>10*10^6</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="J6" s="2">
+        <f>E6/F6</f>
+        <v>50</v>
+      </c>
+      <c r="K6" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>8</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.78125</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>-7000</v>
+      </c>
+      <c r="E7" s="2">
         <v>7000</v>
       </c>
-      <c r="G7">
+      <c r="F7" s="12">
+        <f t="shared" ref="F3:F8" si="4">10*C7</f>
+        <v>7.8125</v>
+      </c>
+      <c r="G7" s="2">
         <v>7000</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="J7" s="2">
+        <f t="shared" ref="J7:J8" si="5">E7/F7</f>
+        <v>896</v>
+      </c>
+      <c r="K7" s="12">
+        <f t="shared" si="2"/>
+        <v>313.60000000000002</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="12">
         <v>0.01</v>
       </c>
-      <c r="E8">
-        <v>25</v>
-      </c>
-      <c r="G8">
-        <v>25</v>
-      </c>
-      <c r="H8">
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>-25</v>
+      </c>
+      <c r="E8" s="2">
+        <v>25</v>
+      </c>
+      <c r="F8" s="12">
+        <f>25/50</f>
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>25</v>
+      </c>
+      <c r="H8" s="2">
         <v>-180</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>180</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="K8" s="12">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="L8" s="2">
+        <v>180</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4DDB0A-9C54-4BA4-A51B-ACEF930E7ABE}">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E2" s="3">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3">
+        <v>400</v>
+      </c>
+      <c r="G2" s="3">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3">
+        <v>25</v>
+      </c>
+      <c r="I2" s="3">
+        <v>25</v>
+      </c>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>29</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-400</v>
+      </c>
+      <c r="E3" s="1">
+        <v>200</v>
+      </c>
+      <c r="F3" s="1">
+        <v>400</v>
+      </c>
+      <c r="G3" s="1">
+        <v>200</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-25</v>
+      </c>
+      <c r="I3" s="1">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>19</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>400</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-400</v>
+      </c>
+      <c r="G4" s="1">
+        <v>200</v>
+      </c>
+      <c r="H4" s="1">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>400</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-400</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>27</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>400</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>400</v>
+      </c>
+      <c r="G6" s="1">
+        <v>200</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-25</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>23</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>400</v>
+      </c>
+      <c r="E7" s="1">
+        <v>200</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-400</v>
+      </c>
+      <c r="G7" s="1">
+        <v>200</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-25</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>34</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>104</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>104</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>12.75</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-400</v>
+      </c>
+      <c r="E9" s="1">
+        <v>200</v>
+      </c>
+      <c r="F9" s="1">
+        <v>400</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-25</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>31</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>400</v>
+      </c>
+      <c r="E10" s="1">
+        <v>200</v>
+      </c>
+      <c r="F10" s="1">
+        <v>400</v>
+      </c>
+      <c r="G10" s="1">
+        <v>200</v>
+      </c>
+      <c r="H10" s="1">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1">
+        <v>25</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>25</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-400</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1">
+        <v>400</v>
+      </c>
+      <c r="G11" s="1">
+        <v>200</v>
+      </c>
+      <c r="H11" s="1">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-400</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-400</v>
+      </c>
+      <c r="G12" s="1">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-25</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>21</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-400</v>
+      </c>
+      <c r="E13" s="1">
+        <v>200</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-400</v>
+      </c>
+      <c r="G13" s="1">
+        <v>200</v>
+      </c>
+      <c r="H13" s="1">
+        <v>25</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>15</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
+        <v>400</v>
+      </c>
+      <c r="E14" s="1">
+        <v>200</v>
+      </c>
+      <c r="F14" s="1">
+        <v>400</v>
+      </c>
+      <c r="G14" s="1">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1">
+        <v>25</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>33</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>104</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>104</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>12.75</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>11</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1">
+        <v>400</v>
+      </c>
+      <c r="E16" s="1">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1">
+        <v>400</v>
+      </c>
+      <c r="G16" s="1">
+        <v>8</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-25</v>
+      </c>
+      <c r="I16" s="1">
+        <v>25</v>
+      </c>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>7</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1">
+        <v>400</v>
+      </c>
+      <c r="E17" s="1">
+        <v>200</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-400</v>
+      </c>
+      <c r="G17" s="1">
+        <v>8</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-25</v>
+      </c>
+      <c r="I17" s="1">
+        <v>25</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>5</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-400</v>
+      </c>
+      <c r="E18" s="1">
+        <v>200</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="1">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1">
+        <v>25</v>
+      </c>
+      <c r="I18" s="1">
+        <v>25</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-400</v>
+      </c>
+      <c r="E19" s="1">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-400</v>
+      </c>
+      <c r="G19" s="1">
+        <v>200</v>
+      </c>
+      <c r="H19" s="1">
+        <v>-25</v>
+      </c>
+      <c r="I19" s="1">
+        <v>25</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>35</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>104</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>104</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>12.75</v>
+      </c>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>14</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-400</v>
+      </c>
+      <c r="E21" s="1">
+        <v>200</v>
+      </c>
+      <c r="F21" s="1">
+        <v>400</v>
+      </c>
+      <c r="G21" s="1">
+        <v>8</v>
+      </c>
+      <c r="H21" s="1">
+        <v>-25</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>8</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1">
+        <v>400</v>
+      </c>
+      <c r="E22" s="1">
+        <v>200</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-400</v>
+      </c>
+      <c r="G22" s="1">
+        <v>8</v>
+      </c>
+      <c r="H22" s="1">
+        <v>-25</v>
+      </c>
+      <c r="I22" s="1">
+        <v>25</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="1">
+        <v>200</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-400</v>
+      </c>
+      <c r="G23" s="1">
+        <v>200</v>
+      </c>
+      <c r="H23" s="1">
+        <v>25</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>10</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1">
+        <v>23</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="1">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1">
+        <v>400</v>
+      </c>
+      <c r="G24" s="1">
+        <v>8</v>
+      </c>
+      <c r="H24" s="1">
+        <v>25</v>
+      </c>
+      <c r="I24" s="1">
+        <v>25</v>
+      </c>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>36</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>104</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>104</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>12.75</v>
+      </c>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>28</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1">
+        <v>400</v>
+      </c>
+      <c r="E26" s="1">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1">
+        <v>400</v>
+      </c>
+      <c r="G26" s="1">
+        <v>200</v>
+      </c>
+      <c r="H26" s="1">
+        <v>-25</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <v>2</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1">
+        <v>26</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="1">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-400</v>
+      </c>
+      <c r="G27" s="1">
+        <v>8</v>
+      </c>
+      <c r="H27" s="1">
+        <v>-25</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>6</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-400</v>
+      </c>
+      <c r="E28" s="1">
+        <v>200</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-400</v>
+      </c>
+      <c r="G28" s="1">
+        <v>8</v>
+      </c>
+      <c r="H28" s="1">
+        <v>25</v>
+      </c>
+      <c r="I28" s="1">
+        <v>25</v>
+      </c>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
+        <v>16</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1">
+        <v>400</v>
+      </c>
+      <c r="E29" s="1">
+        <v>200</v>
+      </c>
+      <c r="F29" s="1">
+        <v>400</v>
+      </c>
+      <c r="G29" s="1">
+        <v>8</v>
+      </c>
+      <c r="H29" s="1">
+        <v>25</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <v>20</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="1">
+        <v>29</v>
+      </c>
+      <c r="D30" s="1">
+        <v>400</v>
+      </c>
+      <c r="E30" s="1">
+        <v>8</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-400</v>
+      </c>
+      <c r="G30" s="1">
+        <v>200</v>
+      </c>
+      <c r="H30" s="1">
+        <v>25</v>
+      </c>
+      <c r="I30" s="1">
+        <v>25</v>
+      </c>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>4</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1">
+        <v>400</v>
+      </c>
+      <c r="E31" s="1">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-400</v>
+      </c>
+      <c r="G31" s="1">
+        <v>8</v>
+      </c>
+      <c r="H31" s="1">
+        <v>25</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>18</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="1">
+        <v>31</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="1">
+        <v>8</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-400</v>
+      </c>
+      <c r="G32" s="1">
+        <v>200</v>
+      </c>
+      <c r="H32" s="1">
+        <v>-25</v>
+      </c>
+      <c r="I32" s="1">
+        <v>25</v>
+      </c>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <v>30</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="1">
+        <v>32</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="1">
+        <v>200</v>
+      </c>
+      <c r="F33" s="1">
+        <v>400</v>
+      </c>
+      <c r="G33" s="1">
+        <v>200</v>
+      </c>
+      <c r="H33" s="1">
+        <v>-25</v>
+      </c>
+      <c r="I33" s="1">
+        <v>25</v>
+      </c>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <v>12</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="1">
+        <v>33</v>
+      </c>
+      <c r="D34" s="1">
+        <v>400</v>
+      </c>
+      <c r="E34" s="1">
+        <v>8</v>
+      </c>
+      <c r="F34" s="1">
+        <v>400</v>
+      </c>
+      <c r="G34" s="1">
+        <v>8</v>
+      </c>
+      <c r="H34" s="1">
+        <v>-25</v>
+      </c>
+      <c r="I34" s="1">
+        <v>25</v>
+      </c>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <v>24</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="1">
+        <v>34</v>
+      </c>
+      <c r="D35" s="1">
+        <v>400</v>
+      </c>
+      <c r="E35" s="1">
+        <v>200</v>
+      </c>
+      <c r="F35" s="1">
+        <v>-400</v>
+      </c>
+      <c r="G35" s="1">
+        <v>200</v>
+      </c>
+      <c r="H35" s="1">
+        <v>-25</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <v>26</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="1">
+        <v>35</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-400</v>
+      </c>
+      <c r="E36" s="1">
+        <v>8</v>
+      </c>
+      <c r="F36" s="1">
+        <v>400</v>
+      </c>
+      <c r="G36" s="1">
+        <v>200</v>
+      </c>
+      <c r="H36" s="1">
+        <v>25</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="11">
+        <v>32</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="1">
+        <v>36</v>
+      </c>
+      <c r="D37" s="1">
+        <v>400</v>
+      </c>
+      <c r="E37" s="1">
+        <v>200</v>
+      </c>
+      <c r="F37" s="1">
+        <v>400</v>
+      </c>
+      <c r="G37" s="1">
+        <v>200</v>
+      </c>
+      <c r="H37" s="1">
+        <v>25</v>
+      </c>
+      <c r="I37" s="1">
+        <v>25</v>
+      </c>
+      <c r="J37" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J1" xr:uid="{4D4DDB0A-9C54-4BA4-A51B-ACEF930E7ABE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J37">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DOE_model/factorial_params.xlsx
+++ b/DOE_model/factorial_params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Werkmap\Obsidian\Github\RC-FAB-2D-Heterostructures\DOE_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F448D4-A856-4B08-8667-D32D408F3274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A91D4E3-4C5C-42AC-A9CA-68E66A5C3F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B11409B1-1748-4106-B2DF-C971854B53A2}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{B11409B1-1748-4106-B2DF-C971854B53A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -42,11 +42,21 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={7EE6BC95-7F54-422E-B8AE-F73FAC75196D}</author>
     <author>tc={89078540-DF50-418F-95F4-9756F20F8609}</author>
     <author>tc={F377E9B2-1295-487D-BB40-05CFC3303C19}</author>
   </authors>
   <commentList>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{89078540-DF50-418F-95F4-9756F20F8609}">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{7EE6BC95-7F54-422E-B8AE-F73FAC75196D}">
+      <text>
+        <t xml:space="preserve">[Opmerkingenthread]
+U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
+Opmerking:
+    1 Hz
+</t>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="1" shapeId="0" xr:uid="{89078540-DF50-418F-95F4-9756F20F8609}">
       <text>
         <t>[Opmerkingenthread]
 U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +64,7 @@
     Controlled by the tango desktop</t>
       </text>
     </comment>
-    <comment ref="B8" authorId="1" shapeId="0" xr:uid="{F377E9B2-1295-487D-BB40-05CFC3303C19}">
+    <comment ref="B8" authorId="2" shapeId="0" xr:uid="{F377E9B2-1295-487D-BB40-05CFC3303C19}">
       <text>
         <t xml:space="preserve">[Opmerkingenthread]
 U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
@@ -68,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>part name</t>
   </si>
@@ -76,12 +86,6 @@
     <t>step size (um)</t>
   </si>
   <si>
-    <t>min speed (um/s)</t>
-  </si>
-  <si>
-    <t>max speed (um/s)</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -164,13 +168,22 @@
   </si>
   <si>
     <t>Response (-)</t>
+  </si>
+  <si>
+    <t>min speed (steps/s)</t>
+  </si>
+  <si>
+    <t>max speed (steps/s)</t>
+  </si>
+  <si>
+    <t>Used acceleration (steps/s^2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +197,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -323,7 +342,7 @@
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>731520</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
@@ -400,7 +419,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>Elke meting duur 55 seconde (50 nodig om op top snelheid te komen en 5 sec speling. Voor elke meting word een achtergrond meting gedaan van dezefde tijd, dit is 'nodig' omdat de achtergrond vibratie in het lab over de dag varieerd</a:t>
+            <a:t>Elke meting duur 10 seconde (maximale tijd die gebruikt kan worden voor de onderdelen crashen)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -409,7 +428,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>All parts are tested using velosity control</a:t>
+            <a:t>All parts are tested using velosity control and the same acceleration. All parts start from their home position</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -725,6 +744,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E5" dT="2022-12-23T11:35:48.09" personId="{50D80062-D623-42FA-B49C-26D000ECE8E6}" id="{7EE6BC95-7F54-422E-B8AE-F73FAC75196D}">
+    <text xml:space="preserve">1 Hz
+</text>
+  </threadedComment>
   <threadedComment ref="B7" dT="2022-12-21T14:21:20.98" personId="{50D80062-D623-42FA-B49C-26D000ECE8E6}" id="{89078540-DF50-418F-95F4-9756F20F8609}">
     <text>Controlled by the tango desktop</text>
   </threadedComment>
@@ -737,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89A2BBB-2230-4309-927A-399AC88D1CD3}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,19 +773,20 @@
     <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.21875" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="16" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.21875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -771,42 +795,45 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>0.02</v>
@@ -818,38 +845,39 @@
       <c r="E2" s="1">
         <v>40</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1"/>
+      <c r="G2" s="2">
         <v>0.5</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="1">
-        <f t="shared" ref="J2:J5" si="0">E2/F2</f>
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1">
+        <f t="shared" ref="K2:K5" si="0">E2/G2</f>
         <v>80</v>
       </c>
-      <c r="K2" s="2">
-        <f>1/2 *F2*J2^2 /10000</f>
+      <c r="L2" s="2">
+        <f>1/2 *G2*K2^2 /10000</f>
         <v>0.16</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>1.4</v>
       </c>
-      <c r="M2" s="1">
-        <f>IF(K2&gt;L2, 0, 1)</f>
+      <c r="N2" s="1">
+        <f>IF(L2&gt;M2, 0, 1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
         <v>0.02</v>
@@ -861,38 +889,39 @@
       <c r="E3" s="1">
         <v>40</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1"/>
+      <c r="G3" s="2">
         <v>0.5</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="K3" s="2">
-        <f t="shared" ref="K3:K8" si="2">1/2 *F3*J3^2 /10000</f>
+      <c r="L3" s="2">
+        <f t="shared" ref="L3:L8" si="2">1/2 *G3*K3^2 /10000</f>
         <v>0.16</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>1.4</v>
       </c>
-      <c r="M3" s="1">
-        <f t="shared" ref="M3:M8" si="3">IF(K3&gt;L3, 0, 1)</f>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N8" si="3">IF(L3&gt;M3, 0, 1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2">
         <v>0.02</v>
@@ -904,130 +933,139 @@
       <c r="E4" s="1">
         <v>40</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1"/>
+      <c r="G4" s="2">
         <v>0.5</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>1.5</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>0.78125</v>
+        <f>0.78125 * 10</f>
+        <v>7.8125</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>-400</v>
+        <v>-25600</v>
       </c>
       <c r="E5" s="1">
-        <v>400</v>
-      </c>
-      <c r="F5" s="2">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1">
-        <v>200</v>
+        <v>25600</v>
+      </c>
+      <c r="F5" s="1">
+        <v>600</v>
+      </c>
+      <c r="G5" s="2">
+        <f>E5/100</f>
+        <v>256</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
         <f>2.5*10^6 +5.5*10^6</f>
         <v>8000000</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="K5" s="2">
-        <f>1/2 *F5*J5^2 /10000</f>
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
+        <v>100</v>
+      </c>
+      <c r="L5" s="2">
+        <f>1/2 *G5*C5*K5^2 /1000</f>
+        <v>10000</v>
+      </c>
+      <c r="M5" s="1">
         <v>8</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>0.78125</v>
+        <v>7.81</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>-400</v>
+        <v>-25600</v>
       </c>
       <c r="E6" s="1">
-        <v>400</v>
-      </c>
-      <c r="F6" s="2">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1">
-        <v>200</v>
+        <v>25600</v>
+      </c>
+      <c r="F6" s="1">
+        <v>600</v>
+      </c>
+      <c r="G6" s="2">
+        <v>256</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
         <f>10*10^6</f>
         <v>10000000</v>
       </c>
-      <c r="J6" s="1">
-        <f>E6/F6</f>
-        <v>50</v>
-      </c>
-      <c r="K6" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="K6" s="1">
+        <f>E6/G6</f>
+        <v>100</v>
+      </c>
+      <c r="L6" s="2">
+        <f>1/2 *G6*C6*K6^2 /10000</f>
+        <v>999.68</v>
+      </c>
+      <c r="M6" s="1">
         <v>8</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2">
         <v>0.78125</v>
@@ -1039,41 +1077,42 @@
       <c r="E7" s="1">
         <v>7000</v>
       </c>
-      <c r="F7" s="2">
-        <f t="shared" ref="F7" si="4">10*C7</f>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2">
+        <f t="shared" ref="G7" si="4">10*C7</f>
         <v>7.8125</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>7000</v>
       </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
       <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
         <v>2000</v>
       </c>
-      <c r="J7" s="1">
-        <f t="shared" ref="J7:J8" si="5">E7/F7</f>
+      <c r="K7" s="1">
+        <f t="shared" ref="K7:K8" si="5">E7/G7</f>
         <v>896</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <f t="shared" si="2"/>
         <v>313.60000000000002</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>2.5</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2">
         <v>0.01</v>
@@ -1085,31 +1124,34 @@
       <c r="E8" s="1">
         <v>25</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
+        <v>25</v>
+      </c>
+      <c r="G8" s="2">
         <f>25/50</f>
         <v>0.5</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>25</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>-180</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>180</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>180</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -1126,7 +1168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4DDB0A-9C54-4BA4-A51B-ACEF930E7ABE}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:J1048576"/>
     </sheetView>
   </sheetViews>
@@ -1139,25 +1181,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
